--- a/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06590382887700431</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1440471153181685</v>
+        <v>0.1440471153181684</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0670706802944972</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07419208855446444</v>
+        <v>0.07103379896453073</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09392366993694459</v>
+        <v>0.09402728145345403</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04950932275678732</v>
+        <v>0.04872850034856131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1176285766154391</v>
+        <v>0.1178326879041537</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05597745081702955</v>
+        <v>0.05499385474517868</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07978612055751971</v>
+        <v>0.08094034226134679</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04957393236471976</v>
+        <v>0.04854566990808176</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07647853607203373</v>
+        <v>0.07575814414608155</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06698864061057495</v>
+        <v>0.0668251199299067</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09060600040518921</v>
+        <v>0.09071331641553974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.053687615412291</v>
+        <v>0.05309310170018802</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09768846975414994</v>
+        <v>0.0984748524818769</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1093613089386875</v>
+        <v>0.1082601537180374</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1347615219729659</v>
+        <v>0.1352349070492147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08723477081327521</v>
+        <v>0.08569373074515746</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1753878420469146</v>
+        <v>0.1754804552746639</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08137019399064634</v>
+        <v>0.08147794766638776</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1136652897696192</v>
+        <v>0.1139257076404688</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08063576208181128</v>
+        <v>0.08051781753313807</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1080808161595287</v>
+        <v>0.1059988863700145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0889791602019266</v>
+        <v>0.08863000607951589</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1174054884855084</v>
+        <v>0.1178887409053525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0766172326021219</v>
+        <v>0.07589392474915413</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1282125007070126</v>
+        <v>0.1290421186990871</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1541518065705209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1835994760402739</v>
+        <v>0.183599476040274</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1523229285121757</v>
@@ -821,7 +821,7 @@
         <v>0.1596468326333152</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1478182297092195</v>
+        <v>0.1478182297092194</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.171670015069648</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1697370946280486</v>
+        <v>0.172063934082786</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1794215146380038</v>
+        <v>0.1788390175581819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1378426064545444</v>
+        <v>0.1391046172099464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.164431830501117</v>
+        <v>0.1651083434845989</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1352271397305862</v>
+        <v>0.1359599686302138</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.141672895319741</v>
+        <v>0.1418631128364125</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1437970207635497</v>
+        <v>0.1414924007149345</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1334212363083111</v>
+        <v>0.1322136454069063</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1586820101153735</v>
+        <v>0.1587688732543551</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1662439702336508</v>
+        <v>0.1658197945544971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1451010197255328</v>
+        <v>0.1451816660183952</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1536892517096695</v>
+        <v>0.1530101371674353</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2079508514144078</v>
+        <v>0.2120126685011481</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2155647590289675</v>
+        <v>0.2168180588032441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1705234723346417</v>
+        <v>0.1724075889310464</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2033780884377467</v>
+        <v>0.2019932651760735</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1711476397703013</v>
+        <v>0.1704725089379757</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1778307656025252</v>
+        <v>0.1801899512410999</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1773785370258027</v>
+        <v>0.1753257093020016</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1642758816618211</v>
+        <v>0.164124143324216</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1841173762212543</v>
+        <v>0.1854643638480871</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1917884264326146</v>
+        <v>0.1920906490690122</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1690455934552144</v>
+        <v>0.1693305697491067</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.179231910323145</v>
+        <v>0.177413929753689</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1516462774899143</v>
+        <v>0.152680387902788</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1833835656407521</v>
+        <v>0.1833623054768932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1286810506265488</v>
+        <v>0.1285998997831662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1231029670557022</v>
+        <v>0.1188472488199449</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1549489005307092</v>
+        <v>0.1536206742347717</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1221246801760942</v>
+        <v>0.12121353218079</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1449861301612252</v>
+        <v>0.1461748909454011</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1164061637245491</v>
+        <v>0.1155067482086898</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1610551414415111</v>
+        <v>0.1594362057030637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1625120630851908</v>
+        <v>0.1616800325198197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1474258497277637</v>
+        <v>0.1444620642748246</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.12599891748455</v>
+        <v>0.1266881959326468</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2159419141097345</v>
+        <v>0.2205504162409157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2646962830242158</v>
+        <v>0.2664477870878637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1942802651469857</v>
+        <v>0.192791407846981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1844727398469611</v>
+        <v>0.1803672146368491</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2279984368567066</v>
+        <v>0.2304081834484496</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1896691720863458</v>
+        <v>0.1895378941944581</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2173884652280411</v>
+        <v>0.2148049726403884</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1614974747949681</v>
+        <v>0.1631320004787278</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2088219712599166</v>
+        <v>0.2103221584290174</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2175204855218936</v>
+        <v>0.2139562421002113</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1940034054980515</v>
+        <v>0.1923943710779653</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1642205161148452</v>
+        <v>0.1641625229351969</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1629282401719423</v>
+        <v>0.1633940985791403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1233138905502705</v>
+        <v>0.1228950649678136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1563211323674657</v>
+        <v>0.1544240897627917</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1242001802777066</v>
+        <v>0.1232102575175234</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.124533048770324</v>
+        <v>0.1241838406747227</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1232464039425013</v>
+        <v>0.123778855457489</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1461256910425559</v>
+        <v>0.1464887402323689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1274008093005643</v>
+        <v>0.1264556313872817</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1424824882581419</v>
+        <v>0.1422060989286076</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1896629104913987</v>
+        <v>0.1889099932136501</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1471581178936033</v>
+        <v>0.147542178500232</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.185700783694158</v>
+        <v>0.185650676373087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1462783409682551</v>
+        <v>0.1466143675064862</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.146938065094028</v>
+        <v>0.147705123315642</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1441080464376231</v>
+        <v>0.1442236141160012</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1637308837286063</v>
+        <v>0.1646545068350103</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1444794325353801</v>
+        <v>0.1425568023327125</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1595246819377849</v>
+        <v>0.161677334547684</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>76303</v>
+        <v>73055</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90767</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36949</v>
+        <v>36366</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>67939</v>
+        <v>68057</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>73491</v>
+        <v>72200</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>105471</v>
+        <v>106997</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48830</v>
+        <v>47817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>62822</v>
+        <v>62230</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>156842</v>
+        <v>156459</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>207335</v>
+        <v>207581</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>92949</v>
+        <v>91920</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>136667</v>
+        <v>137767</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>112473</v>
+        <v>111340</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>130232</v>
+        <v>130690</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65104</v>
+        <v>63954</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101300</v>
+        <v>101353</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>106829</v>
+        <v>106970</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>150257</v>
+        <v>150601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>79425</v>
+        <v>79309</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>88781</v>
+        <v>87071</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>208329</v>
+        <v>207511</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>268661</v>
+        <v>269767</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>132647</v>
+        <v>131395</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>179370</v>
+        <v>180531</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>286825</v>
+        <v>290757</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>349949</v>
+        <v>348813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>284090</v>
+        <v>286691</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>365700</v>
+        <v>367205</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>214028</v>
+        <v>215188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>246759</v>
+        <v>247090</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>284412</v>
+        <v>279854</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>289230</v>
+        <v>286613</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>519294</v>
+        <v>519579</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>613803</v>
+        <v>612237</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>586041</v>
+        <v>586366</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>674976</v>
+        <v>671993</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>351399</v>
+        <v>358263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>420444</v>
+        <v>422889</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>351444</v>
+        <v>355327</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>452318</v>
+        <v>449238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>270880</v>
+        <v>269812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>309737</v>
+        <v>313846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>350832</v>
+        <v>346772</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>356117</v>
+        <v>355788</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>602533</v>
+        <v>606941</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>708118</v>
+        <v>709234</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>682749</v>
+        <v>683900</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>787155</v>
+        <v>779171</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>83496</v>
+        <v>84065</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>87149</v>
+        <v>87139</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69650</v>
+        <v>69606</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>87598</v>
+        <v>84570</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>73663</v>
+        <v>73031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>55648</v>
+        <v>55233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>78713</v>
+        <v>79359</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>85544</v>
+        <v>84883</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>165242</v>
+        <v>163581</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>151282</v>
+        <v>150507</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>159834</v>
+        <v>156621</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>182253</v>
+        <v>183250</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>118897</v>
+        <v>121434</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>125791</v>
+        <v>126624</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105157</v>
+        <v>104351</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>131268</v>
+        <v>128347</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>108390</v>
+        <v>109536</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>86426</v>
+        <v>86366</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>118021</v>
+        <v>116618</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>118681</v>
+        <v>119882</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>214250</v>
+        <v>215789</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>202489</v>
+        <v>199171</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>210332</v>
+        <v>208587</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>237539</v>
+        <v>237455</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>552661</v>
+        <v>554241</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>412921</v>
+        <v>411519</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>549186</v>
+        <v>542521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>437104</v>
+        <v>433620</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>436584</v>
+        <v>435360</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>458983</v>
+        <v>460966</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1009933</v>
+        <v>1012442</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>873244</v>
+        <v>866766</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1031188</v>
+        <v>1029187</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>643346</v>
+        <v>640792</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>492765</v>
+        <v>494051</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>652402</v>
+        <v>652226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>514804</v>
+        <v>515987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>515131</v>
+        <v>517820</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>536674</v>
+        <v>537104</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1131609</v>
+        <v>1137993</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>990306</v>
+        <v>977128</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1154527</v>
+        <v>1170106</v>
       </c>
     </row>
     <row r="20">
